--- a/biology/Médecine/Foramen_stylo-mastoïdien/Foramen_stylo-mastoïdien.xlsx
+++ b/biology/Médecine/Foramen_stylo-mastoïdien/Foramen_stylo-mastoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foramen_stylo-masto%C3%AFdien</t>
+          <t>Foramen_stylo-mastoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen stylo-mastoidien (ou trou stylo-mastoïdien) est un orifice pair de la partie postérieure de la face inférieure de la partie pétreuse de l'os temporal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foramen_stylo-masto%C3%AFdien</t>
+          <t>Foramen_stylo-mastoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen stylo-mastoïdien est situé en arrière du processus styloïde de l'os temporal et en avant du processus mastoïde.
 Il forme au fond d'une dépression l'orifice inférieur du canal du nerf facial.
-Il laisse passer le nerf facial (nerf crânien VII) et l'artère stylo-mastoïdienne[1].
+Il laisse passer le nerf facial (nerf crânien VII) et l'artère stylo-mastoïdienne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foramen_stylo-masto%C3%AFdien</t>
+          <t>Foramen_stylo-mastoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La paralysie faciale a frigore peut résulter d'une inflammation du nerf facial quand il sort du crâne au niveau du foramen stylo-mastoïdien. Les patients atteints de cette maladie présentent une déviation du visage du côté touché.
 </t>
